--- a/src/main/resources/upload/upload2.xlsx
+++ b/src/main/resources/upload/upload2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="460" windowWidth="23040" windowHeight="14400" activeTab="2"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="23040" windowHeight="14400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="证据清单" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="257">
   <si>
     <t>证据清单</t>
   </si>
@@ -247,10 +247,6 @@
   </si>
   <si>
     <t>2015年3月10日发生在怀化市四中学校门前路段的交通事故现场遗留车辆散落物（左侧后视镜）与湘N×××××五菱牌小型面包车缺失的左侧后视镜相吻合。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>怀化市四中学校门前路段</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1009,6 +1005,10 @@
     <rPh sb="0" eb="1">
       <t>bei gao</t>
     </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀化市四中学校门前路段</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1206,7 +1206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1266,6 +1266,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1281,10 +1307,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="57" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1292,42 +1314,6 @@
     <xf numFmtId="57" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1338,10 +1324,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1640,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L87"/>
   <sheetViews>
-    <sheetView zoomScale="43" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView topLeftCell="A71" zoomScale="56" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1653,19 +1657,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="20"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="2:12" ht="28" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
@@ -1701,67 +1705,67 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="21">
+      <c r="B3" s="29">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="K5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L5" s="2"/>
     </row>
@@ -1770,31 +1774,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>81</v>
-      </c>
       <c r="E6" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>185</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>186</v>
       </c>
       <c r="H6" s="23" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L6" s="2"/>
     </row>
@@ -1808,10 +1812,10 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -1825,10 +1829,10 @@
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L8" s="2"/>
     </row>
@@ -1837,16 +1841,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>83</v>
-      </c>
       <c r="E9" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23" t="s">
@@ -1856,10 +1860,10 @@
         <v>24</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L9" s="2"/>
     </row>
@@ -1873,10 +1877,10 @@
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L10" s="2"/>
     </row>
@@ -1890,10 +1894,10 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L11" s="2"/>
     </row>
@@ -1907,10 +1911,10 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L12" s="2"/>
     </row>
@@ -1924,10 +1928,10 @@
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L13" s="2"/>
     </row>
@@ -1941,10 +1945,10 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L14" s="2"/>
     </row>
@@ -1953,19 +1957,19 @@
         <v>4</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>91</v>
-      </c>
       <c r="E15" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>23</v>
@@ -1974,10 +1978,10 @@
         <v>24</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L15" s="2"/>
     </row>
@@ -1991,10 +1995,10 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L16" s="2"/>
     </row>
@@ -2008,10 +2012,10 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="2"/>
     </row>
@@ -2020,16 +2024,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>94</v>
-      </c>
       <c r="E18" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23" t="s">
@@ -2039,10 +2043,10 @@
         <v>24</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L18" s="1"/>
     </row>
@@ -2056,10 +2060,10 @@
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -2073,10 +2077,10 @@
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -2090,10 +2094,10 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -2107,10 +2111,10 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -2124,10 +2128,10 @@
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -2141,10 +2145,10 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -2158,10 +2162,10 @@
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -2175,646 +2179,646 @@
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="2:12" ht="28" x14ac:dyDescent="0.2">
+      <c r="B27" s="20">
+        <v>6</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="2:12" ht="28" x14ac:dyDescent="0.2">
-      <c r="B27" s="26">
-        <v>6</v>
-      </c>
-      <c r="C27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="E27" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="F27" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="G27" s="26" t="s">
+      <c r="H27" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="I27" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="K27" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="K27" s="8" t="s">
+    </row>
+    <row r="28" spans="2:12" ht="28" x14ac:dyDescent="0.2">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" ht="28" x14ac:dyDescent="0.2">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="8" t="s">
+      <c r="K28" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="K28" s="8" t="s">
+    </row>
+    <row r="29" spans="2:12" ht="28" x14ac:dyDescent="0.2">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" ht="28" x14ac:dyDescent="0.2">
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="8" t="s">
+      <c r="K29" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="K29" s="8" t="s">
+    </row>
+    <row r="30" spans="2:12" ht="28" x14ac:dyDescent="0.2">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" ht="28" x14ac:dyDescent="0.2">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="K30" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="28" x14ac:dyDescent="0.2">
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="28" x14ac:dyDescent="0.2">
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
       <c r="J32" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="K32" s="8" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="33" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="K34" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="14" t="s">
+      <c r="K35" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="K35" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="14" t="s">
+      <c r="K36" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B37" s="22">
+        <v>7</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="14" t="s">
         <v>209</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B37" s="30">
-        <v>7</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="14" t="s">
-        <v>210</v>
       </c>
       <c r="K41" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
       <c r="J42" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K42" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="17" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="17" t="s">
-        <v>212</v>
       </c>
       <c r="K45" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B46" s="30">
+      <c r="B46" s="22">
         <v>8</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="E46" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="G46" s="30" t="s">
+      <c r="H46" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H46" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" s="8" t="s">
+      <c r="K46" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="K46" s="8" t="s">
+    </row>
+    <row r="47" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="8" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="8" t="s">
+      <c r="K47" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="K47" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="8" t="s">
+      <c r="K48" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="K48" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="8" t="s">
+      <c r="K50" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B51" s="22">
+        <v>9</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B51" s="30">
-        <v>9</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="G51" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="I51" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="K52" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
       <c r="J53" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K53" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
       <c r="J54" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K54" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
       <c r="J55" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K55" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
       <c r="J56" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="70" x14ac:dyDescent="0.2">
+      <c r="B57" s="22">
+        <v>10</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="70" x14ac:dyDescent="0.2">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="70" x14ac:dyDescent="0.2">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="70" x14ac:dyDescent="0.2">
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="14" t="s">
         <v>216</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="70" x14ac:dyDescent="0.2">
-      <c r="B57" s="30">
-        <v>10</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="G57" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="I57" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="70" x14ac:dyDescent="0.2">
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" ht="70" x14ac:dyDescent="0.2">
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" ht="70" x14ac:dyDescent="0.2">
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="14" t="s">
-        <v>217</v>
       </c>
       <c r="K60" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="61" spans="2:11" ht="70" x14ac:dyDescent="0.2">
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
       <c r="J61" s="14" t="s">
         <v>54</v>
       </c>
@@ -2823,163 +2827,163 @@
       </c>
     </row>
     <row r="62" spans="2:11" ht="70" x14ac:dyDescent="0.2">
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
       <c r="J62" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K62" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="63" spans="2:11" ht="70" x14ac:dyDescent="0.2">
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
       <c r="J63" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K63" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="64" spans="2:11" ht="70" x14ac:dyDescent="0.2">
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
       <c r="J64" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K64" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="B65" s="30">
+      <c r="B65" s="22">
         <v>11</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="E65" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G65" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E65" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="G65" s="30" t="s">
+      <c r="H65" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K65" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="H65" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="I65" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K65" s="8" t="s">
+    </row>
+    <row r="66" spans="2:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="8" t="s">
+      <c r="K66" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K66" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="8" t="s">
+      <c r="K67" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="K67" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="8" t="s">
+      <c r="K68" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="K70" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="K69" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K70" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="71" spans="2:11" ht="70" x14ac:dyDescent="0.2">
@@ -2987,79 +2991,79 @@
         <v>12</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="E71" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="F71" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G71" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F71" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G71" s="8" t="s">
+      <c r="H71" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K71" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="H71" s="8" t="s">
+    </row>
+    <row r="72" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B72" s="22">
+        <v>13</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I72" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I71" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K71" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B72" s="30">
-        <v>13</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="F72" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="G72" s="30" t="s">
+      <c r="J72" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="H72" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="I72" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="J72" s="8" t="s">
+      <c r="K72" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="K72" s="8" t="s">
+    </row>
+    <row r="73" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="8" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="8" t="s">
+      <c r="K73" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="74" spans="2:11" ht="84" x14ac:dyDescent="0.2">
@@ -3067,19 +3071,19 @@
         <v>14</v>
       </c>
       <c r="C74" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>167</v>
-      </c>
       <c r="E74" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>23</v>
@@ -3088,138 +3092,138 @@
         <v>24</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B75" s="26">
+      <c r="B75" s="20">
         <v>15</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D75" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="G75" s="26" t="s">
+      <c r="E75" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="G75" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H75" s="26" t="s">
+      <c r="H75" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I75" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="I75" s="26" t="s">
-        <v>106</v>
       </c>
       <c r="J75" s="14" t="s">
         <v>58</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
       <c r="J76" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B77" s="30">
+      <c r="B77" s="22">
         <v>16</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="F77" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="G77" s="30" t="s">
+      <c r="E77" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G77" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H77" s="30" t="s">
+      <c r="H77" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I77" s="22" t="s">
         <v>105</v>
-      </c>
-      <c r="I77" s="30" t="s">
-        <v>106</v>
       </c>
       <c r="J77" s="6">
         <v>42073</v>
       </c>
       <c r="K77" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="78" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="8" t="s">
+      <c r="K78" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="K78" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="K79" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
       <c r="J80" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="2:11" ht="70" x14ac:dyDescent="0.2">
@@ -3227,127 +3231,127 @@
         <v>17</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D81" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K81" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E81" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H81" s="8" t="s">
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" s="22">
+        <v>18</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H82" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I82" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I81" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K81" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B82" s="30">
-        <v>18</v>
-      </c>
-      <c r="C82" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="E82" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="F82" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="G82" s="30" t="s">
+      <c r="J82" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K82" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="H82" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="I82" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
       <c r="J83" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
       <c r="J84" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
       <c r="J85" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K85" s="14" t="s">
+      <c r="K86" s="8" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="K86" s="8" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="87" spans="2:11" ht="126" x14ac:dyDescent="0.2">
@@ -3355,137 +3359,33 @@
         <v>19</v>
       </c>
       <c r="C87" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="E87" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I87" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I87" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="J87" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H77:H80"/>
-    <mergeCell ref="I77:I80"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="G82:G86"/>
-    <mergeCell ref="H82:H86"/>
-    <mergeCell ref="I82:I86"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="G77:G80"/>
-    <mergeCell ref="F77:F80"/>
-    <mergeCell ref="F82:F86"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="I65:I70"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="H51:H56"/>
-    <mergeCell ref="I51:I56"/>
-    <mergeCell ref="B57:B64"/>
-    <mergeCell ref="C57:C64"/>
-    <mergeCell ref="D57:D64"/>
-    <mergeCell ref="E57:E64"/>
-    <mergeCell ref="G57:G64"/>
-    <mergeCell ref="H57:H64"/>
-    <mergeCell ref="I57:I64"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="E51:E56"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="F51:F56"/>
-    <mergeCell ref="F57:F64"/>
-    <mergeCell ref="H37:H45"/>
-    <mergeCell ref="I37:I45"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="G46:G50"/>
-    <mergeCell ref="H46:H50"/>
-    <mergeCell ref="I46:I50"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="G37:G45"/>
-    <mergeCell ref="F37:F45"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="I18:I26"/>
-    <mergeCell ref="B27:B36"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="D27:D36"/>
-    <mergeCell ref="E27:E36"/>
-    <mergeCell ref="G27:G36"/>
-    <mergeCell ref="H27:H36"/>
-    <mergeCell ref="I27:I36"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="C18:C26"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="E18:E26"/>
-    <mergeCell ref="G18:G26"/>
-    <mergeCell ref="H18:H26"/>
-    <mergeCell ref="F18:F26"/>
-    <mergeCell ref="F27:F36"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="F15:F17"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="I3:I5"/>
@@ -3503,6 +3403,110 @@
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="I18:I26"/>
+    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="D27:D36"/>
+    <mergeCell ref="E27:E36"/>
+    <mergeCell ref="G27:G36"/>
+    <mergeCell ref="H27:H36"/>
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="C18:C26"/>
+    <mergeCell ref="D18:D26"/>
+    <mergeCell ref="E18:E26"/>
+    <mergeCell ref="G18:G26"/>
+    <mergeCell ref="H18:H26"/>
+    <mergeCell ref="F18:F26"/>
+    <mergeCell ref="F27:F36"/>
+    <mergeCell ref="H37:H45"/>
+    <mergeCell ref="I37:I45"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="D46:D50"/>
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="H46:H50"/>
+    <mergeCell ref="I46:I50"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="G37:G45"/>
+    <mergeCell ref="F37:F45"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="H51:H56"/>
+    <mergeCell ref="I51:I56"/>
+    <mergeCell ref="B57:B64"/>
+    <mergeCell ref="C57:C64"/>
+    <mergeCell ref="D57:D64"/>
+    <mergeCell ref="E57:E64"/>
+    <mergeCell ref="G57:G64"/>
+    <mergeCell ref="H57:H64"/>
+    <mergeCell ref="I57:I64"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="E51:E56"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="F51:F56"/>
+    <mergeCell ref="F57:F64"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="I65:I70"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="G82:G86"/>
+    <mergeCell ref="H82:H86"/>
+    <mergeCell ref="I82:I86"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="G77:G80"/>
+    <mergeCell ref="F77:F80"/>
+    <mergeCell ref="F82:F86"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H77:H80"/>
+    <mergeCell ref="I77:I80"/>
+    <mergeCell ref="F75:F76"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3514,8 +3518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H94"/>
   <sheetViews>
-    <sheetView zoomScale="59" workbookViewId="0">
-      <selection activeCell="AO89" sqref="AO89"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3528,15 +3532,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:8" ht="56" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
@@ -3562,134 +3566,134 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="39">
+      <c r="B3" s="34">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>189</v>
+      <c r="C3" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>188</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8">
         <v>1</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="40"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="42"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="B5" s="35"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="15" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B5" s="40"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="F5" s="8">
         <v>2</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B6" s="40"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="8">
         <v>3</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B7" s="40"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F7" s="8">
         <v>3</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B8" s="40"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="42"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="8">
         <v>4</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B9" s="40"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F9" s="8">
         <v>4</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="40"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="14" t="s">
         <v>25</v>
       </c>
@@ -3704,11 +3708,11 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="40"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F11" s="8">
         <v>6</v>
@@ -3721,11 +3725,11 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="8">
         <v>6</v>
@@ -3738,11 +3742,11 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="40"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="8">
         <v>6</v>
@@ -3755,28 +3759,28 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="40"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F14" s="8">
         <v>6</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B15" s="40"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F15" s="8">
         <v>6</v>
@@ -3789,77 +3793,77 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B16" s="40"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="42"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F16" s="8">
         <v>6</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B17" s="40"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="42"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="8">
         <v>6</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B18" s="40"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="42"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F18" s="8">
         <v>6</v>
       </c>
       <c r="G18" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="B19" s="35"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="14" t="s">
         <v>208</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B19" s="40"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="14" t="s">
-        <v>209</v>
       </c>
       <c r="F19" s="8">
         <v>6</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="40"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="42"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="14" t="s">
         <v>25</v>
       </c>
@@ -3874,11 +3878,11 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="40"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F21" s="8">
         <v>7</v>
@@ -3891,11 +3895,11 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="40"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="42"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="8">
         <v>7</v>
@@ -3908,11 +3912,11 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B23" s="40"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="42"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="8">
         <v>7</v>
@@ -3925,60 +3929,60 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B24" s="40"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="42"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F24" s="8">
         <v>7</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="40"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="42"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="8">
         <v>7</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="40"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="42"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F26" s="8">
         <v>7</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B27" s="40"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="42"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="14" t="s">
         <v>25</v>
       </c>
@@ -3993,9 +3997,9 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B28" s="40"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="42"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="14" t="s">
         <v>46</v>
       </c>
@@ -4010,11 +4014,11 @@
       </c>
     </row>
     <row r="29" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B29" s="40"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="42"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="8">
         <v>8</v>
@@ -4027,28 +4031,28 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B30" s="40"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="42"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="8">
         <v>8</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B31" s="40"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="42"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F31" s="8">
         <v>8</v>
@@ -4061,9 +4065,9 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B32" s="40"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="42"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="14" t="s">
         <v>25</v>
       </c>
@@ -4078,11 +4082,11 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B33" s="40"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="42"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F33" s="8">
         <v>10</v>
@@ -4095,45 +4099,45 @@
       </c>
     </row>
     <row r="34" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B34" s="40"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="42"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F34" s="8">
         <v>10</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B35" s="40"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="42"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F35" s="8">
         <v>10</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B36" s="40"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="42"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F36" s="8">
         <v>10</v>
@@ -4146,62 +4150,62 @@
       </c>
     </row>
     <row r="37" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B37" s="40"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="42"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F37" s="8">
         <v>10</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B38" s="40"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="42"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F38" s="8">
         <v>10</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B39" s="40"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="42"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F39" s="8">
         <v>10</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H39" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="40"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="42"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F40" s="8">
         <v>12</v>
@@ -4214,9 +4218,9 @@
       </c>
     </row>
     <row r="41" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B41" s="40"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="42"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="6">
         <v>42073</v>
       </c>
@@ -4231,45 +4235,45 @@
       </c>
     </row>
     <row r="42" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B42" s="40"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="42"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F42" s="8">
         <v>16</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B43" s="40"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="42"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F43" s="3">
         <v>16</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B44" s="40"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="42"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F44" s="9">
         <v>16</v>
@@ -4282,168 +4286,170 @@
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="40"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="7"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="19" t="s">
+        <v>228</v>
+      </c>
       <c r="F45" s="9">
         <v>19</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="39">
+      <c r="B46" s="34">
         <v>2</v>
       </c>
-      <c r="C46" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>190</v>
+      <c r="C46" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>189</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F46" s="9">
         <v>1</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="40"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F47" s="9">
         <v>1</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B48" s="40"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F48" s="9">
         <v>2</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B49" s="40"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F49" s="9">
         <v>2</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B50" s="40"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F50" s="9">
         <v>3</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B51" s="40"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
       <c r="E51" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F51" s="9">
         <v>3</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B52" s="40"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
       <c r="E52" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F52" s="9">
         <v>4</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B53" s="40"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
       <c r="E53" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F53" s="9">
         <v>4</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="40"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
       <c r="E54" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F54" s="9">
         <v>7</v>
@@ -4456,26 +4462,26 @@
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="40"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F55" s="9">
         <v>7</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B56" s="40"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
       <c r="E56" s="14" t="s">
         <v>25</v>
       </c>
@@ -4486,100 +4492,100 @@
         <v>25</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B57" s="40"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
       <c r="E57" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F57" s="9">
         <v>11</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B58" s="40"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
       <c r="E58" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F58" s="9">
         <v>11</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B59" s="40"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
       <c r="E59" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F59" s="9">
         <v>11</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B60" s="40"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
       <c r="E60" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F60" s="9">
         <v>11</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B61" s="40"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
       <c r="E61" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F61" s="9">
         <v>11</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="40"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
       <c r="E62" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F62" s="9">
         <v>12</v>
@@ -4592,11 +4598,11 @@
       </c>
     </row>
     <row r="63" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B63" s="40"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
       <c r="E63" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F63" s="9">
         <v>14</v>
@@ -4605,15 +4611,15 @@
         <v>58</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="40"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
       <c r="E64" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F64" s="9">
         <v>15</v>
@@ -4622,50 +4628,50 @@
         <v>58</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="40"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
       <c r="E65" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F65" s="9">
         <v>15</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="40"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
       <c r="E66" s="14"/>
       <c r="F66" s="9">
         <v>19</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="36">
+      <c r="B67" s="42">
         <v>3</v>
       </c>
-      <c r="C67" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D67" s="34" t="s">
+      <c r="C67" s="36" t="s">
         <v>191</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>51</v>
@@ -4677,13 +4683,13 @@
         <v>45</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="37"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
       <c r="E68" s="7" t="s">
         <v>55</v>
       </c>
@@ -4694,367 +4700,367 @@
         <v>55</v>
       </c>
       <c r="H68" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="43"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="7" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="37"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="F69" s="9">
         <v>18</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="37"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
       <c r="E70" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F70" s="9">
         <v>18</v>
       </c>
       <c r="G70" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="43"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="14" t="s">
         <v>224</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="37"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="14" t="s">
-        <v>225</v>
       </c>
       <c r="F71" s="9">
         <v>18</v>
       </c>
       <c r="G71" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="B72" s="42">
+        <v>4</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E72" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="H71" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B72" s="36">
-        <v>4</v>
-      </c>
-      <c r="C72" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>226</v>
       </c>
       <c r="F72" s="14">
         <v>2</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B73" s="37"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
       <c r="E73" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F73" s="14">
         <v>2</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B74" s="32">
+      <c r="B74" s="40">
         <v>5</v>
       </c>
-      <c r="C74" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>197</v>
+      <c r="C74" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>196</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F74" s="8">
         <v>3</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B75" s="32"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
       <c r="E75" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F75" s="14">
         <v>3</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B76" s="32"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
       <c r="E76" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F76" s="14">
         <v>3</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B77" s="32"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
       <c r="E77" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F77" s="14">
         <v>3</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B78" s="32"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
       <c r="E78" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F78" s="14">
         <v>3</v>
       </c>
       <c r="G78" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="B79" s="40"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B79" s="32"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="F79" s="14">
         <v>3</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="32"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
       <c r="E80" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F80" s="14">
         <v>5</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="32"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
       <c r="E81" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F81" s="8">
         <v>5</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="32"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
       <c r="E82" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F82" s="8">
         <v>5</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="32"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
       <c r="E83" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F83" s="8">
         <v>5</v>
       </c>
       <c r="G83" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="40"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="32"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="F84" s="8">
         <v>5</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="32"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
       <c r="E85" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F85" s="8">
         <v>5</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="32"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
       <c r="E86" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F86" s="8">
         <v>5</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="32"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
       <c r="E87" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F87" s="8">
         <v>5</v>
       </c>
       <c r="G87" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="40"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="H87" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="32"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="F88" s="8">
         <v>5</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B89" s="32"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
       <c r="E89" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F89" s="8">
         <v>9</v>
@@ -5067,85 +5073,85 @@
       </c>
     </row>
     <row r="90" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B90" s="32"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
       <c r="E90" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F90" s="8">
         <v>9</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H90" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B91" s="32"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
       <c r="E91" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F91" s="14">
         <v>9</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H91" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B92" s="32"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
       <c r="E92" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F92" s="8">
         <v>9</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H92" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B93" s="32"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
       <c r="E93" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F93" s="14">
         <v>9</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H93" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B94" s="32"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
       <c r="E94" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F94" s="8">
         <v>9</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H94" s="14" t="s">
         <v>49</v>
@@ -5153,13 +5159,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:B45"/>
-    <mergeCell ref="C3:C45"/>
-    <mergeCell ref="D3:D45"/>
-    <mergeCell ref="D46:D66"/>
-    <mergeCell ref="C46:C66"/>
-    <mergeCell ref="B46:B66"/>
     <mergeCell ref="B74:B94"/>
     <mergeCell ref="C74:C94"/>
     <mergeCell ref="D74:D94"/>
@@ -5169,6 +5168,13 @@
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:B45"/>
+    <mergeCell ref="C3:C45"/>
+    <mergeCell ref="D3:D45"/>
+    <mergeCell ref="D46:D66"/>
+    <mergeCell ref="C46:C66"/>
+    <mergeCell ref="B46:B66"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5180,7 +5186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -5194,12 +5200,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -5215,73 +5221,73 @@
         <v>21</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="106.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>247</v>
+        <v>188</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="43"/>
+        <v>189</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="43"/>
+        <v>190</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="2:6" ht="129.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="43"/>
+        <v>195</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="2:6" ht="157.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="43"/>
+        <v>238</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">
